--- a/ClosedXML_Tests/Resource/Examples/Ranges/UsingTables.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/UsingTables.xlsx
@@ -75,7 +75,7 @@
     <x:numFmt numFmtId="0" formatCode=""/>
     <x:numFmt numFmtId="165" formatCode="$ #,##0"/>
   </x:numFmts>
-  <x:fonts count="4">
+  <x:fonts count="2">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -85,20 +85,6 @@
     </x:font>
     <x:font>
       <x:b/>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-    <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
@@ -298,7 +284,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="19">
+  <x:cellStyleXfs count="17">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -344,12 +330,6 @@
     <x:xf numFmtId="165" fontId="0" fillId="0" borderId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="15" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="15" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -357,7 +337,7 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="19">
+  <x:cellXfs count="17">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -415,14 +395,6 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -791,10 +763,10 @@
       <x:c r="D2" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E2" s="17" t="s">
+      <x:c r="E2" s="15" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="F2" s="18" t="s">
+      <x:c r="F2" s="16" t="s">
         <x:v>4</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
@@ -814,10 +786,10 @@
       <x:c r="D3" s="0" t="b">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E3" s="17">
+      <x:c r="E3" s="15">
         <x:v>6961</x:v>
       </x:c>
-      <x:c r="F3" s="18" t="n">
+      <x:c r="F3" s="16" t="n">
         <x:v>2000</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
@@ -837,10 +809,10 @@
       <x:c r="D4" s="0" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E4" s="17">
+      <x:c r="E4" s="15">
         <x:v>2620</x:v>
       </x:c>
-      <x:c r="F4" s="18" t="n">
+      <x:c r="F4" s="16" t="n">
         <x:v>40000</x:v>
       </x:c>
       <x:c r="H4" s="0" t="s">
@@ -860,10 +832,10 @@
       <x:c r="D5" s="0" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="E5" s="17">
+      <x:c r="E5" s="15">
         <x:v>8020</x:v>
       </x:c>
-      <x:c r="F5" s="18" t="n">
+      <x:c r="F5" s="16" t="n">
         <x:v>10000</x:v>
       </x:c>
       <x:c r="H5" s="0" t="s">
@@ -877,8 +849,8 @@
       <x:c r="B6" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="E6" s="17" t="s"/>
-      <x:c r="F6" s="18" t="n">
+      <x:c r="E6" s="15" t="s"/>
+      <x:c r="F6" s="16" t="n">
         <x:f>SUBTOTAL(109,[Income])</x:f>
       </x:c>
       <x:c r="H6" s="0" t="s">

--- a/ClosedXML_Tests/Resource/Examples/Ranges/UsingTables.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/UsingTables.xlsx
@@ -743,12 +743,12 @@
   <x:cols>
     <x:col min="1" max="1" width="3.710625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="14.890625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="9.000625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="8.440625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.505425" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.155425" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="10.140625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="9.210625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="10.895425" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="3.710625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="14.010625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="16.725425" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="3.710625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="13.830625" style="0" customWidth="1"/>
   </x:cols>

--- a/ClosedXML_Tests/Resource/Examples/Ranges/UsingTables.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Ranges/UsingTables.xlsx
@@ -447,7 +447,7 @@
 </x:table>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -730,7 +730,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
